--- a/predict_model/predict_results/0_train_2nstep_denguefever_prediction_results_by_RandomForest_in_BR Vũng Tàu.xlsx
+++ b/predict_model/predict_results/0_train_2nstep_denguefever_prediction_results_by_RandomForest_in_BR Vũng Tàu.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I38"/>
+  <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,18 +477,18 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2013-12-31</t>
+          <t>2014-01-31</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-35217.30489921396</v>
+        <v>17.9329873</v>
       </c>
       <c r="D2" t="n">
-        <v>-6.140524237401873</v>
+        <v>20.17199371586678</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -496,32 +496,32 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>19537.25851671925</v>
+        <v>19.87042282334976</v>
       </c>
       <c r="G2" t="n">
-        <v>14397.68336392695</v>
+        <v>13.56146641573188</v>
       </c>
       <c r="H2" t="n">
-        <v>1.000040776979287</v>
+        <v>0.5005744306456315</v>
       </c>
       <c r="I2" t="n">
-        <v>381704470.3491188</v>
+        <v>394.8337031786989</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2014-01-31</t>
+          <t>2014-02-28</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-42397.72433687416</v>
+        <v>9.4384143</v>
       </c>
       <c r="D3" t="n">
-        <v>-2.174104084326224</v>
+        <v>10.91172471808651</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -529,32 +529,32 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>19537.25851671925</v>
+        <v>19.87042282334976</v>
       </c>
       <c r="G3" t="n">
-        <v>14397.68336392695</v>
+        <v>13.56146641573188</v>
       </c>
       <c r="H3" t="n">
-        <v>1.000040776979287</v>
+        <v>0.5005744306456315</v>
       </c>
       <c r="I3" t="n">
-        <v>381704470.3491188</v>
+        <v>394.8337031786989</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2014-02-28</t>
+          <t>2014-03-31</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-19718.32602010834</v>
+        <v>12.5530911</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.2260066809759847</v>
+        <v>8.267686207262878</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -562,32 +562,32 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>19537.25851671925</v>
+        <v>19.87042282334976</v>
       </c>
       <c r="G4" t="n">
-        <v>14397.68336392695</v>
+        <v>13.56146641573188</v>
       </c>
       <c r="H4" t="n">
-        <v>1.000040776979287</v>
+        <v>0.5005744306456315</v>
       </c>
       <c r="I4" t="n">
-        <v>381704470.3491188</v>
+        <v>394.8337031786989</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2014-03-31</t>
+          <t>2014-04-30</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5691.581906738325</v>
+        <v>10.3822558</v>
       </c>
       <c r="D5" t="n">
-        <v>0.656758821838228</v>
+        <v>7.901201811564627</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -595,32 +595,32 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>19537.25851671925</v>
+        <v>19.87042282334976</v>
       </c>
       <c r="G5" t="n">
-        <v>14397.68336392695</v>
+        <v>13.56146641573188</v>
       </c>
       <c r="H5" t="n">
-        <v>1.000040776979287</v>
+        <v>0.5005744306456315</v>
       </c>
       <c r="I5" t="n">
-        <v>381704470.3491188</v>
+        <v>394.8337031786989</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2014-04-30</t>
+          <t>2014-05-31</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-5877.156633110379</v>
+        <v>12.5530911</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5033012353645266</v>
+        <v>6.713099791007334</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -628,32 +628,32 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>19537.25851671925</v>
+        <v>19.87042282334976</v>
       </c>
       <c r="G6" t="n">
-        <v>14397.68336392695</v>
+        <v>13.56146641573188</v>
       </c>
       <c r="H6" t="n">
-        <v>1.000040776979287</v>
+        <v>0.5005744306456315</v>
       </c>
       <c r="I6" t="n">
-        <v>381704470.3491188</v>
+        <v>394.8337031786989</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2014-05-31</t>
+          <t>2014-06-30</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3625.735801444315</v>
+        <v>10.8541765</v>
       </c>
       <c r="D7" t="n">
-        <v>2.732929979688065</v>
+        <v>8.607611900574987</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -661,32 +661,32 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>19537.25851671925</v>
+        <v>19.87042282334976</v>
       </c>
       <c r="G7" t="n">
-        <v>14397.68336392695</v>
+        <v>13.56146641573188</v>
       </c>
       <c r="H7" t="n">
-        <v>1.000040776979287</v>
+        <v>0.5005744306456315</v>
       </c>
       <c r="I7" t="n">
-        <v>381704470.3491188</v>
+        <v>394.8337031786989</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2014-06-30</t>
+          <t>2014-07-31</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-4844.233580463373</v>
+        <v>14.3463898</v>
       </c>
       <c r="D8" t="n">
-        <v>4.800450511826988</v>
+        <v>9.770437365432938</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -694,32 +694,32 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>19537.25851671925</v>
+        <v>19.87042282334976</v>
       </c>
       <c r="G8" t="n">
-        <v>14397.68336392695</v>
+        <v>13.56146641573188</v>
       </c>
       <c r="H8" t="n">
-        <v>1.000040776979287</v>
+        <v>0.5005744306456315</v>
       </c>
       <c r="I8" t="n">
-        <v>381704470.3491188</v>
+        <v>394.8337031786989</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2014-07-31</t>
+          <t>2014-08-31</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>6517.920436406491</v>
+        <v>20.0094384</v>
       </c>
       <c r="D9" t="n">
-        <v>3.836035620294556</v>
+        <v>14.69495614070073</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -727,32 +727,32 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>19537.25851671925</v>
+        <v>19.87042282334976</v>
       </c>
       <c r="G9" t="n">
-        <v>14397.68336392695</v>
+        <v>13.56146641573188</v>
       </c>
       <c r="H9" t="n">
-        <v>1.000040776979287</v>
+        <v>0.5005744306456315</v>
       </c>
       <c r="I9" t="n">
-        <v>381704470.3491188</v>
+        <v>394.8337031786989</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2014-08-31</t>
+          <t>2014-09-30</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>11269.36665368384</v>
+        <v>21.1420481</v>
       </c>
       <c r="D10" t="n">
-        <v>2.605539062487684</v>
+        <v>20.21547401354664</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -760,32 +760,32 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>19537.25851671925</v>
+        <v>19.87042282334976</v>
       </c>
       <c r="G10" t="n">
-        <v>14397.68336392695</v>
+        <v>13.56146641573188</v>
       </c>
       <c r="H10" t="n">
-        <v>1.000040776979287</v>
+        <v>0.5005744306456315</v>
       </c>
       <c r="I10" t="n">
-        <v>381704470.3491188</v>
+        <v>394.8337031786989</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2014-09-30</t>
+          <t>2014-10-31</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1353.304954295062</v>
+        <v>27.4657857</v>
       </c>
       <c r="D11" t="n">
-        <v>-4.53793982564711</v>
+        <v>16.6613446833807</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -793,32 +793,32 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>19537.25851671925</v>
+        <v>19.87042282334976</v>
       </c>
       <c r="G11" t="n">
-        <v>14397.68336392695</v>
+        <v>13.56146641573188</v>
       </c>
       <c r="H11" t="n">
-        <v>1.000040776979287</v>
+        <v>0.5005744306456315</v>
       </c>
       <c r="I11" t="n">
-        <v>381704470.3491188</v>
+        <v>394.8337031786989</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2014-10-31</t>
+          <t>2014-11-30</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>12715.45897116493</v>
+        <v>28.8815479</v>
       </c>
       <c r="D12" t="n">
-        <v>-1.198687661025474</v>
+        <v>15.23177363640519</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -826,32 +826,32 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>19537.25851671925</v>
+        <v>19.87042282334976</v>
       </c>
       <c r="G12" t="n">
-        <v>14397.68336392695</v>
+        <v>13.56146641573188</v>
       </c>
       <c r="H12" t="n">
-        <v>1.000040776979287</v>
+        <v>0.5005744306456315</v>
       </c>
       <c r="I12" t="n">
-        <v>381704470.3491188</v>
+        <v>394.8337031786989</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2014-11-30</t>
+          <t>2014-12-31</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1973.058960984388</v>
+        <v>21.4252006</v>
       </c>
       <c r="D13" t="n">
-        <v>-1.52065203148832</v>
+        <v>10.71826145635706</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -859,32 +859,32 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>19537.25851671925</v>
+        <v>19.87042282334976</v>
       </c>
       <c r="G13" t="n">
-        <v>14397.68336392695</v>
+        <v>13.56146641573188</v>
       </c>
       <c r="H13" t="n">
-        <v>1.000040776979287</v>
+        <v>0.5005744306456315</v>
       </c>
       <c r="I13" t="n">
-        <v>381704470.3491188</v>
+        <v>394.8337031786989</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2014-12-31</t>
+          <t>2015-01-31</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>-17445.89517295908</v>
+        <v>15.1051802</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.04213886643220369</v>
+        <v>8.161082965377403</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -892,32 +892,32 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>19537.25851671925</v>
+        <v>19.87042282334976</v>
       </c>
       <c r="G14" t="n">
-        <v>14397.68336392695</v>
+        <v>13.56146641573188</v>
       </c>
       <c r="H14" t="n">
-        <v>1.000040776979287</v>
+        <v>0.5005744306456315</v>
       </c>
       <c r="I14" t="n">
-        <v>381704470.3491188</v>
+        <v>394.8337031786989</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2015-01-31</t>
+          <t>2015-02-28</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>-14958.74351030641</v>
+        <v>5.0041701</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9037328687895958</v>
+        <v>7.462631461043987</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -925,32 +925,32 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>19537.25851671925</v>
+        <v>19.87042282334976</v>
       </c>
       <c r="G15" t="n">
-        <v>14397.68336392695</v>
+        <v>13.56146641573188</v>
       </c>
       <c r="H15" t="n">
-        <v>1.000040776979287</v>
+        <v>0.5005744306456315</v>
       </c>
       <c r="I15" t="n">
-        <v>381704470.3491188</v>
+        <v>394.8337031786989</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2015-02-28</t>
+          <t>2015-03-31</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>-23234.43797813372</v>
+        <v>7.0429061</v>
       </c>
       <c r="D16" t="n">
-        <v>1.198725075388164</v>
+        <v>6.932658843397517</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -958,32 +958,32 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>19537.25851671925</v>
+        <v>19.87042282334976</v>
       </c>
       <c r="G16" t="n">
-        <v>14397.68336392695</v>
+        <v>13.56146641573188</v>
       </c>
       <c r="H16" t="n">
-        <v>1.000040776979287</v>
+        <v>0.5005744306456315</v>
       </c>
       <c r="I16" t="n">
-        <v>381704470.3491188</v>
+        <v>394.8337031786989</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2015-03-31</t>
+          <t>2015-04-30</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3336.60160536321</v>
+        <v>8.5256232</v>
       </c>
       <c r="D17" t="n">
-        <v>9.308399201598387</v>
+        <v>9.873335659410429</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -991,32 +991,32 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>19537.25851671925</v>
+        <v>19.87042282334976</v>
       </c>
       <c r="G17" t="n">
-        <v>14397.68336392695</v>
+        <v>13.56146641573188</v>
       </c>
       <c r="H17" t="n">
-        <v>1.000040776979287</v>
+        <v>0.5005744306456315</v>
       </c>
       <c r="I17" t="n">
-        <v>381704470.3491188</v>
+        <v>394.8337031786989</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2015-04-30</t>
+          <t>2015-05-31</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2119.60743766209</v>
+        <v>5.7455287</v>
       </c>
       <c r="D18" t="n">
-        <v>8.155987727559898</v>
+        <v>12.39843019709857</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -1024,32 +1024,32 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>19537.25851671925</v>
+        <v>19.87042282334976</v>
       </c>
       <c r="G18" t="n">
-        <v>14397.68336392695</v>
+        <v>13.56146641573188</v>
       </c>
       <c r="H18" t="n">
-        <v>1.000040776979287</v>
+        <v>0.5005744306456315</v>
       </c>
       <c r="I18" t="n">
-        <v>381704470.3491188</v>
+        <v>394.8337031786989</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2015-05-31</t>
+          <t>2015-06-30</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>-7210.681254338633</v>
+        <v>8.5256232</v>
       </c>
       <c r="D19" t="n">
-        <v>4.97625361886822</v>
+        <v>16.07649725337489</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -1057,32 +1057,32 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>19537.25851671925</v>
+        <v>19.87042282334976</v>
       </c>
       <c r="G19" t="n">
-        <v>14397.68336392695</v>
+        <v>13.56146641573188</v>
       </c>
       <c r="H19" t="n">
-        <v>1.000040776979287</v>
+        <v>0.5005744306456315</v>
       </c>
       <c r="I19" t="n">
-        <v>381704470.3491188</v>
+        <v>394.8337031786989</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2015-06-30</t>
+          <t>2015-07-31</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4959.260422672569</v>
+        <v>19.275322</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.6267566276279254</v>
+        <v>18.07224239006214</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -1090,32 +1090,32 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>19537.25851671925</v>
+        <v>19.87042282334976</v>
       </c>
       <c r="G20" t="n">
-        <v>14397.68336392695</v>
+        <v>13.56146641573188</v>
       </c>
       <c r="H20" t="n">
-        <v>1.000040776979287</v>
+        <v>0.5005744306456315</v>
       </c>
       <c r="I20" t="n">
-        <v>381704470.3491188</v>
+        <v>394.8337031786989</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2015-07-31</t>
+          <t>2015-08-31</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>22402.84363897289</v>
+        <v>38.9213233</v>
       </c>
       <c r="D21" t="n">
-        <v>-4.578267567528727</v>
+        <v>14.73000179951535</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -1123,32 +1123,32 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>19537.25851671925</v>
+        <v>19.87042282334976</v>
       </c>
       <c r="G21" t="n">
-        <v>14397.68336392695</v>
+        <v>13.56146641573188</v>
       </c>
       <c r="H21" t="n">
-        <v>1.000040776979287</v>
+        <v>0.5005744306456315</v>
       </c>
       <c r="I21" t="n">
-        <v>381704470.3491188</v>
+        <v>394.8337031786989</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2015-08-31</t>
+          <t>2015-09-30</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>41874.75054106721</v>
+        <v>46.2422389</v>
       </c>
       <c r="D22" t="n">
-        <v>-5.937850346200809</v>
+        <v>12.78891310668031</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -1156,32 +1156,32 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>19537.25851671925</v>
+        <v>19.87042282334976</v>
       </c>
       <c r="G22" t="n">
-        <v>14397.68336392695</v>
+        <v>13.56146641573188</v>
       </c>
       <c r="H22" t="n">
-        <v>1.000040776979287</v>
+        <v>0.5005744306456315</v>
       </c>
       <c r="I22" t="n">
-        <v>381704470.3491188</v>
+        <v>394.8337031786989</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2015-09-30</t>
+          <t>2015-10-31</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>14898.04630796205</v>
+        <v>40.6820499</v>
       </c>
       <c r="D23" t="n">
-        <v>0.4899494190419431</v>
+        <v>8.217362351357654</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -1189,32 +1189,32 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>19537.25851671925</v>
+        <v>19.87042282334976</v>
       </c>
       <c r="G23" t="n">
-        <v>14397.68336392695</v>
+        <v>13.56146641573188</v>
       </c>
       <c r="H23" t="n">
-        <v>1.000040776979287</v>
+        <v>0.5005744306456315</v>
       </c>
       <c r="I23" t="n">
-        <v>381704470.3491188</v>
+        <v>394.8337031786989</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2015-10-31</t>
+          <t>2015-11-30</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>-13295.65209284423</v>
+        <v>40.6820499</v>
       </c>
       <c r="D24" t="n">
-        <v>-1.802383664003625</v>
+        <v>6.342344787360303</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -1222,32 +1222,32 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>19537.25851671925</v>
+        <v>19.87042282334976</v>
       </c>
       <c r="G24" t="n">
-        <v>14397.68336392695</v>
+        <v>13.56146641573188</v>
       </c>
       <c r="H24" t="n">
-        <v>1.000040776979287</v>
+        <v>0.5005744306456315</v>
       </c>
       <c r="I24" t="n">
-        <v>381704470.3491188</v>
+        <v>394.8337031786989</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2015-11-30</t>
+          <t>2015-12-31</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>-1125.710415833031</v>
+        <v>27.1522565</v>
       </c>
       <c r="D25" t="n">
-        <v>4.738461721879443</v>
+        <v>5.259104336316065</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -1255,32 +1255,32 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>19537.25851671925</v>
+        <v>19.87042282334976</v>
       </c>
       <c r="G25" t="n">
-        <v>14397.68336392695</v>
+        <v>13.56146641573188</v>
       </c>
       <c r="H25" t="n">
-        <v>1.000040776979287</v>
+        <v>0.5005744306456315</v>
       </c>
       <c r="I25" t="n">
-        <v>381704470.3491188</v>
+        <v>394.8337031786989</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2015-12-31</t>
+          <t>2016-01-31</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>-30739.23530914455</v>
+        <v>17.1245421</v>
       </c>
       <c r="D26" t="n">
-        <v>7.094305427210522</v>
+        <v>5.109058869554281</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -1288,32 +1288,32 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>19537.25851671925</v>
+        <v>19.87042282334976</v>
       </c>
       <c r="G26" t="n">
-        <v>14397.68336392695</v>
+        <v>13.56146641573188</v>
       </c>
       <c r="H26" t="n">
-        <v>1.000040776979287</v>
+        <v>0.5005744306456315</v>
       </c>
       <c r="I26" t="n">
-        <v>381704470.3491188</v>
+        <v>394.8337031786989</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2016-01-31</t>
+          <t>2016-02-29</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>-23074.01098650165</v>
+        <v>11.8131868</v>
       </c>
       <c r="D27" t="n">
-        <v>7.116298272496143</v>
+        <v>5.973756558064152</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -1321,32 +1321,32 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>19537.25851671925</v>
+        <v>19.87042282334976</v>
       </c>
       <c r="G27" t="n">
-        <v>14397.68336392695</v>
+        <v>13.56146641573188</v>
       </c>
       <c r="H27" t="n">
-        <v>1.000040776979287</v>
+        <v>0.5005744306456315</v>
       </c>
       <c r="I27" t="n">
-        <v>381704470.3491188</v>
+        <v>394.8337031786989</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2016-02-29</t>
+          <t>2016-03-31</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>-12751.01384110946</v>
+        <v>18.2234432</v>
       </c>
       <c r="D28" t="n">
-        <v>1.326861526490345</v>
+        <v>10.03112749767515</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1354,32 +1354,32 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>19537.25851671925</v>
+        <v>19.87042282334976</v>
       </c>
       <c r="G28" t="n">
-        <v>14397.68336392695</v>
+        <v>13.56146641573188</v>
       </c>
       <c r="H28" t="n">
-        <v>1.000040776979287</v>
+        <v>0.5005744306456315</v>
       </c>
       <c r="I28" t="n">
-        <v>381704470.3491188</v>
+        <v>394.8337031786989</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2016-03-31</t>
+          <t>2016-04-30</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>12904.82820842736</v>
+        <v>14.5604396</v>
       </c>
       <c r="D29" t="n">
-        <v>-10.20174860734134</v>
+        <v>14.40051925633079</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -1387,32 +1387,32 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>19537.25851671925</v>
+        <v>19.87042282334976</v>
       </c>
       <c r="G29" t="n">
-        <v>14397.68336392695</v>
+        <v>13.56146641573188</v>
       </c>
       <c r="H29" t="n">
-        <v>1.000040776979287</v>
+        <v>0.5005744306456315</v>
       </c>
       <c r="I29" t="n">
-        <v>381704470.3491188</v>
+        <v>394.8337031786989</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2016-04-30</t>
+          <t>2016-05-31</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>-9143.161152071716</v>
+        <v>9.706959700000001</v>
       </c>
       <c r="D30" t="n">
-        <v>-9.254014651391172</v>
+        <v>18.17550190679504</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -1420,32 +1420,32 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>19537.25851671925</v>
+        <v>19.87042282334976</v>
       </c>
       <c r="G30" t="n">
-        <v>14397.68336392695</v>
+        <v>13.56146641573188</v>
       </c>
       <c r="H30" t="n">
-        <v>1.000040776979287</v>
+        <v>0.5005744306456315</v>
       </c>
       <c r="I30" t="n">
-        <v>381704470.3491188</v>
+        <v>394.8337031786989</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2016-05-31</t>
+          <t>2016-06-30</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>-11748.83263587738</v>
+        <v>11.8131868</v>
       </c>
       <c r="D31" t="n">
-        <v>-6.432506791403022</v>
+        <v>20.92357786246659</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -1453,32 +1453,32 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>19537.25851671925</v>
+        <v>19.87042282334976</v>
       </c>
       <c r="G31" t="n">
-        <v>14397.68336392695</v>
+        <v>13.56146641573188</v>
       </c>
       <c r="H31" t="n">
-        <v>1.000040776979287</v>
+        <v>0.5005744306456315</v>
       </c>
       <c r="I31" t="n">
-        <v>381704470.3491188</v>
+        <v>394.8337031786989</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2016-06-30</t>
+          <t>2016-07-31</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3484.323697313201</v>
+        <v>16.3919414</v>
       </c>
       <c r="D32" t="n">
-        <v>-1.324579534598472</v>
+        <v>15.75982920540233</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -1486,32 +1486,32 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>19537.25851671925</v>
+        <v>19.87042282334976</v>
       </c>
       <c r="G32" t="n">
-        <v>14397.68336392695</v>
+        <v>13.56146641573188</v>
       </c>
       <c r="H32" t="n">
-        <v>1.000040776979287</v>
+        <v>0.5005744306456315</v>
       </c>
       <c r="I32" t="n">
-        <v>381704470.3491188</v>
+        <v>394.8337031786989</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2016-07-31</t>
+          <t>2016-08-31</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>8896.102949746224</v>
+        <v>44.96337</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.5258543488074751</v>
+        <v>12.68217588257521</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -1519,32 +1519,32 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>19537.25851671925</v>
+        <v>19.87042282334976</v>
       </c>
       <c r="G33" t="n">
-        <v>14397.68336392695</v>
+        <v>13.56146641573188</v>
       </c>
       <c r="H33" t="n">
-        <v>1.000040776979287</v>
+        <v>0.5005744306456315</v>
       </c>
       <c r="I33" t="n">
-        <v>381704470.3491188</v>
+        <v>394.8337031786989</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2016-08-31</t>
+          <t>2016-09-30</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>61410.40475775006</v>
+        <v>53.3882784</v>
       </c>
       <c r="D34" t="n">
-        <v>0.7275250289698806</v>
+        <v>7.87953314871782</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -1552,32 +1552,32 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>19537.25851671925</v>
+        <v>19.87042282334976</v>
       </c>
       <c r="G34" t="n">
-        <v>14397.68336392695</v>
+        <v>13.56146641573188</v>
       </c>
       <c r="H34" t="n">
-        <v>1.000040776979287</v>
+        <v>0.5005744306456315</v>
       </c>
       <c r="I34" t="n">
-        <v>381704470.3491188</v>
+        <v>394.8337031786989</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2016-09-30</t>
+          <t>2016-10-31</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>17314.4260367519</v>
+        <v>55.03663</v>
       </c>
       <c r="D35" t="n">
-        <v>1.962144140834714</v>
+        <v>6.478461459639254</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -1585,32 +1585,32 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>19537.25851671925</v>
+        <v>19.87042282334976</v>
       </c>
       <c r="G35" t="n">
-        <v>14397.68336392695</v>
+        <v>13.56146641573188</v>
       </c>
       <c r="H35" t="n">
-        <v>1.000040776979287</v>
+        <v>0.5005744306456315</v>
       </c>
       <c r="I35" t="n">
-        <v>381704470.3491188</v>
+        <v>394.8337031786989</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2016-10-31</t>
+          <t>2016-11-30</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2482.142273204714</v>
+        <v>49.0842491</v>
       </c>
       <c r="D36" t="n">
-        <v>3.66385856878002</v>
+        <v>7.434072302063083</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -1618,32 +1618,32 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>19537.25851671925</v>
+        <v>19.87042282334976</v>
       </c>
       <c r="G36" t="n">
-        <v>14397.68336392695</v>
+        <v>13.56146641573188</v>
       </c>
       <c r="H36" t="n">
-        <v>1.000040776979287</v>
+        <v>0.5005744306456315</v>
       </c>
       <c r="I36" t="n">
-        <v>381704470.3491188</v>
+        <v>394.8337031786989</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2016-11-30</t>
+          <t>2016-12-31</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>-14154.06783486134</v>
+        <v>46.6117216</v>
       </c>
       <c r="D37" t="n">
-        <v>5.618612832251831</v>
+        <v>7.968470741473066</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -1651,49 +1651,16 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>19537.25851671925</v>
+        <v>19.87042282334976</v>
       </c>
       <c r="G37" t="n">
-        <v>14397.68336392695</v>
+        <v>13.56146641573188</v>
       </c>
       <c r="H37" t="n">
-        <v>1.000040776979287</v>
+        <v>0.5005744306456315</v>
       </c>
       <c r="I37" t="n">
-        <v>381704470.3491188</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>43</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>2016-12-31</t>
-        </is>
-      </c>
-      <c r="C38" t="n">
-        <v>-6537.489668266053</v>
-      </c>
-      <c r="D38" t="n">
-        <v>2.323048574972679</v>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>BR Vũng Tàu</t>
-        </is>
-      </c>
-      <c r="F38" t="n">
-        <v>19537.25851671925</v>
-      </c>
-      <c r="G38" t="n">
-        <v>14397.68336392695</v>
-      </c>
-      <c r="H38" t="n">
-        <v>1.000040776979287</v>
-      </c>
-      <c r="I38" t="n">
-        <v>381704470.3491188</v>
+        <v>394.8337031786989</v>
       </c>
     </row>
   </sheetData>
